--- a/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/StdParameters_model#LR_name#CK+Dem.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/StdParameters_model#LR_name#CK+Dem.xlsx
@@ -440,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -448,7 +448,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.01</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -456,7 +456,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -472,7 +472,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -480,7 +480,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -488,7 +488,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -496,7 +496,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -504,7 +504,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -512,7 +512,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -520,7 +520,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -528,7 +528,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -536,7 +536,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -544,7 +544,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -552,7 +552,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -560,7 +560,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -568,7 +568,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -576,7 +576,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -592,7 +592,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -600,7 +600,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.0001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -616,7 +616,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -624,7 +624,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.0001</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -632,7 +632,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -640,7 +640,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -648,7 +648,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -656,7 +656,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.0001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -664,7 +664,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -672,7 +672,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -680,7 +680,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.5</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -688,7 +688,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -696,7 +696,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -704,7 +704,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -712,7 +712,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -720,7 +720,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -728,7 +728,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -736,7 +736,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -744,7 +744,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -752,7 +752,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -760,7 +760,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.05</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -768,7 +768,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -776,7 +776,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.5</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -784,7 +784,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -792,7 +792,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -808,7 +808,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -816,7 +816,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.5</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -824,7 +824,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -832,7 +832,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -840,7 +840,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.05</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -848,7 +848,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.01</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -856,7 +856,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -872,7 +872,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -880,7 +880,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -888,7 +888,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -896,7 +896,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -904,7 +904,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -912,7 +912,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -920,7 +920,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -928,7 +928,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -936,7 +936,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.0001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -944,7 +944,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -952,7 +952,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -960,7 +960,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -968,7 +968,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -976,7 +976,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -984,7 +984,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -992,7 +992,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1000,7 +1000,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.0001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1008,7 +1008,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1016,7 +1016,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1024,7 +1024,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.5</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1032,7 +1032,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.0001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1040,7 +1040,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1056,7 +1056,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1064,7 +1064,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1072,7 +1072,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1080,7 +1080,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1088,7 +1088,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.0001</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1096,7 +1096,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1104,7 +1104,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1112,7 +1112,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>10</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1128,7 +1128,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1136,7 +1136,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1144,7 +1144,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.0001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1152,7 +1152,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1160,7 +1160,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1168,7 +1168,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.05</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1176,7 +1176,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1184,7 +1184,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1192,7 +1192,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.0001</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1200,7 +1200,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1208,7 +1208,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1224,7 +1224,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/StdParameters_model#LR_name#CK+Dem.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/StdParameters_model#LR_name#CK+Dem.xlsx
@@ -432,7 +432,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -440,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -448,7 +448,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -464,7 +464,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -472,7 +472,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -480,7 +480,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -488,7 +488,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -496,7 +496,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -520,7 +520,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -528,7 +528,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -544,7 +544,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -552,7 +552,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -560,7 +560,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -568,7 +568,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -576,7 +576,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.0001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -592,7 +592,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -600,7 +600,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -608,7 +608,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.0001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -624,7 +624,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -632,7 +632,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.0001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -640,7 +640,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -648,7 +648,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -656,7 +656,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -664,7 +664,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -672,7 +672,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -680,7 +680,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.0001</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -688,7 +688,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -696,7 +696,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.0001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -704,7 +704,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -712,7 +712,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -720,7 +720,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -728,7 +728,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -736,7 +736,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -744,7 +744,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.01</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -752,7 +752,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -760,7 +760,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>10</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -768,7 +768,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -776,7 +776,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.0001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -784,7 +784,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.0001</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -792,7 +792,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -800,7 +800,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -816,7 +816,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.0001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -824,7 +824,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -832,7 +832,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -840,7 +840,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -856,7 +856,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -864,7 +864,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -880,7 +880,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -888,7 +888,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -896,7 +896,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -904,7 +904,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.5</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -912,7 +912,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -920,7 +920,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -928,7 +928,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -936,7 +936,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -944,7 +944,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -952,7 +952,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -960,7 +960,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -976,7 +976,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -984,7 +984,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.5</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -992,7 +992,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.0001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1000,7 +1000,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>10</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1008,7 +1008,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1016,7 +1016,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1032,7 +1032,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1040,7 +1040,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>10</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1056,7 +1056,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.1</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1064,7 +1064,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1072,7 +1072,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1080,7 +1080,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1088,7 +1088,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1104,7 +1104,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.5</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1112,7 +1112,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1120,7 +1120,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1128,7 +1128,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.5</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1136,7 +1136,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1144,7 +1144,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1152,7 +1152,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1160,7 +1160,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1168,7 +1168,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1176,7 +1176,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1184,7 +1184,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1192,7 +1192,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1200,7 +1200,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1208,7 +1208,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1224,7 +1224,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>10</v>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
